--- a/Code/rGC Homology/tBlastN/Ce-rGC_tBlastn.xlsx
+++ b/Code/rGC Homology/tBlastN/Ce-rGC_tBlastn.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20381"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASBryant\Box\Lab_Hallem\Astra\Bioinformatics\rGC Orthologs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/astra/Documents/GitHub/Bryant_et_al_2021/Code/rGC Homology/tBlastN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E0DA65-DD6E-4043-B3DA-C8F19051DBF6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC93AB06-154F-4746-8965-AF4D71A76B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10260" yWindow="1380" windowWidth="26415" windowHeight="15060" activeTab="5" xr2:uid="{AD4C77C0-16BB-4E4E-91C7-9E778F091754}"/>
+    <workbookView xWindow="3480" yWindow="1380" windowWidth="32520" windowHeight="18740" activeTab="5" xr2:uid="{AD4C77C0-16BB-4E4E-91C7-9E778F091754}"/>
   </bookViews>
   <sheets>
     <sheet name="Ce_to_Sr" sheetId="2" r:id="rId1"/>
@@ -1073,7 +1073,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1148,15 +1148,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1164,7 +1162,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1491,21 +1488,21 @@
       <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="3" max="3" width="22.625" customWidth="1"/>
-    <col min="5" max="7" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.875" customWidth="1"/>
-    <col min="9" max="22" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19.625" customWidth="1"/>
-    <col min="24" max="24" width="25.875" customWidth="1"/>
-    <col min="25" max="25" width="18.875" customWidth="1"/>
-    <col min="26" max="26" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" customWidth="1"/>
+    <col min="5" max="7" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.83203125" customWidth="1"/>
+    <col min="9" max="22" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.6640625" customWidth="1"/>
+    <col min="24" max="24" width="25.83203125" customWidth="1"/>
+    <col min="25" max="25" width="18.83203125" customWidth="1"/>
+    <col min="26" max="26" width="7.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -1585,7 +1582,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -1665,7 +1662,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -1745,7 +1742,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -1825,7 +1822,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -1905,7 +1902,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -1985,7 +1982,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>36</v>
       </c>
@@ -2065,7 +2062,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -2145,7 +2142,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -2225,7 +2222,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -2305,7 +2302,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -2382,7 +2379,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>30</v>
       </c>
@@ -2444,7 +2441,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -2500,7 +2497,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -2553,7 +2550,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -2600,7 +2597,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -2641,7 +2638,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -2682,7 +2679,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:14">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -2723,7 +2720,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -2764,7 +2761,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -2805,7 +2802,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>28</v>
       </c>
@@ -2846,7 +2843,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:14">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -2887,7 +2884,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:14">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -2928,7 +2925,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:14">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -2969,7 +2966,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -3007,7 +3004,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>33</v>
       </c>
@@ -3033,22 +3030,22 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="F27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:14">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="F28" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="F29" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="F30" t="s">
         <v>19</v>
       </c>
@@ -3066,26 +3063,26 @@
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.375" customWidth="1"/>
-    <col min="2" max="2" width="26.625" customWidth="1"/>
-    <col min="3" max="3" width="19.625" customWidth="1"/>
-    <col min="4" max="4" width="9.625" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
     <col min="6" max="6" width="27" customWidth="1"/>
-    <col min="7" max="7" width="25.875" customWidth="1"/>
-    <col min="8" max="8" width="24.375" customWidth="1"/>
-    <col min="9" max="9" width="19.875" customWidth="1"/>
+    <col min="7" max="7" width="25.83203125" customWidth="1"/>
+    <col min="8" max="8" width="24.33203125" customWidth="1"/>
+    <col min="9" max="9" width="19.83203125" customWidth="1"/>
     <col min="10" max="10" width="23" customWidth="1"/>
-    <col min="11" max="11" width="20.875" customWidth="1"/>
-    <col min="12" max="12" width="27.125" customWidth="1"/>
-    <col min="13" max="13" width="27.875" customWidth="1"/>
+    <col min="11" max="11" width="20.83203125" customWidth="1"/>
+    <col min="12" max="12" width="27.1640625" customWidth="1"/>
+    <col min="13" max="13" width="27.83203125" customWidth="1"/>
     <col min="14" max="14" width="27" customWidth="1"/>
-    <col min="25" max="25" width="21.625" customWidth="1"/>
+    <col min="25" max="25" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>24</v>
       </c>
@@ -3165,7 +3162,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -3245,7 +3242,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -3325,7 +3322,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -3405,7 +3402,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -3485,7 +3482,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -3565,7 +3562,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>52</v>
       </c>
@@ -3645,7 +3642,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>53</v>
       </c>
@@ -3725,7 +3722,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>49</v>
       </c>
@@ -3805,7 +3802,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -3885,7 +3882,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -3965,7 +3962,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>57</v>
       </c>
@@ -4045,7 +4042,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>58</v>
       </c>
@@ -4125,7 +4122,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>60</v>
       </c>
@@ -4205,7 +4202,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>61</v>
       </c>
@@ -4285,7 +4282,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>59</v>
       </c>
@@ -4362,7 +4359,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>63</v>
       </c>
@@ -4439,7 +4436,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>64</v>
       </c>
@@ -4516,7 +4513,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="19" spans="1:25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>65</v>
       </c>
@@ -4593,7 +4590,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>65</v>
       </c>
@@ -4670,7 +4667,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>52</v>
       </c>
@@ -4747,7 +4744,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
         <v>70</v>
       </c>
@@ -4815,7 +4812,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>66</v>
       </c>
@@ -4877,7 +4874,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
         <v>55</v>
       </c>
@@ -4933,7 +4930,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D25" t="s">
         <v>75</v>
       </c>
@@ -4986,7 +4983,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="1:25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D26" t="s">
         <v>69</v>
       </c>
@@ -5021,7 +5018,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D27" t="s">
         <v>64</v>
       </c>
@@ -5053,7 +5050,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="28" spans="1:25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D28" t="s">
         <v>70</v>
       </c>
@@ -5079,7 +5076,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D29" t="s">
         <v>71</v>
       </c>
@@ -5099,7 +5096,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="30" spans="1:25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D30" t="s">
         <v>59</v>
       </c>
@@ -5113,7 +5110,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D31" t="s">
         <v>55</v>
       </c>
@@ -5124,7 +5121,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="N32" t="s">
         <v>73</v>
       </c>
@@ -5132,7 +5129,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="14:19">
+    <row r="33" spans="14:19" x14ac:dyDescent="0.2">
       <c r="N33" t="s">
         <v>75</v>
       </c>
@@ -5140,7 +5137,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="14:19">
+    <row r="34" spans="14:19" x14ac:dyDescent="0.2">
       <c r="N34" t="s">
         <v>69</v>
       </c>
@@ -5148,7 +5145,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="14:19">
+    <row r="35" spans="14:19" x14ac:dyDescent="0.2">
       <c r="N35" t="s">
         <v>48</v>
       </c>
@@ -5156,7 +5153,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="36" spans="14:19">
+    <row r="36" spans="14:19" x14ac:dyDescent="0.2">
       <c r="N36" t="s">
         <v>50</v>
       </c>
@@ -5164,7 +5161,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="14:19">
+    <row r="37" spans="14:19" x14ac:dyDescent="0.2">
       <c r="S37" t="s">
         <v>60</v>
       </c>
@@ -5182,12 +5179,12 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.625" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -5198,7 +5195,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -5209,7 +5206,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -5220,7 +5217,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -5231,7 +5228,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -5242,7 +5239,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -5251,19 +5248,19 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>29</v>
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>30</v>
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -5271,7 +5268,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -5279,7 +5276,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -5287,12 +5284,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -5300,12 +5297,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -5313,7 +5310,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -5321,17 +5318,17 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -5339,7 +5336,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -5347,7 +5344,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>39</v>
       </c>
@@ -5389,15 +5386,15 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.875" customWidth="1"/>
-    <col min="2" max="2" width="23.625" customWidth="1"/>
-    <col min="3" max="3" width="30.875" customWidth="1"/>
-    <col min="4" max="4" width="21.625" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="30.83203125" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>109</v>
       </c>
@@ -5411,7 +5408,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -5422,7 +5419,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>34</v>
       </c>
@@ -5433,7 +5430,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -5444,7 +5441,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>37</v>
       </c>
@@ -5455,7 +5452,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -5463,7 +5460,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>35</v>
       </c>
@@ -5471,7 +5468,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
@@ -5512,179 +5509,179 @@
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>52</v>
       </c>
@@ -5698,39 +5695,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{427D24AC-C616-B842-8203-23EFB599A2A4}">
   <dimension ref="A1:BE88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="34.875" customWidth="1"/>
-    <col min="4" max="4" width="31.625" customWidth="1"/>
-    <col min="5" max="5" width="26.375" customWidth="1"/>
-    <col min="6" max="6" width="47.875" customWidth="1"/>
+    <col min="3" max="3" width="34.83203125" customWidth="1"/>
+    <col min="4" max="4" width="31.6640625" customWidth="1"/>
+    <col min="5" max="5" width="26.33203125" customWidth="1"/>
+    <col min="6" max="6" width="47.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="8" customFormat="1">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="7" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>213</v>
       </c>
@@ -5750,7 +5747,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>213</v>
       </c>
@@ -5770,7 +5767,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>213</v>
       </c>
@@ -5790,7 +5787,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>213</v>
       </c>
@@ -5810,7 +5807,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>213</v>
       </c>
@@ -5830,8 +5827,8 @@
         <v>267</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
         <v>195</v>
       </c>
       <c r="B7" t="s">
@@ -5850,9 +5847,9 @@
         <v>193</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="8"/>
-      <c r="C8" s="11" t="s">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" s="6"/>
+      <c r="C8" s="9" t="s">
         <v>342</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -5862,27 +5859,27 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="10" t="s">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="9" t="s">
         <v>343</v>
       </c>
       <c r="D9" t="s">
         <v>242</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="9">
         <v>1003</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="9" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>213</v>
       </c>
@@ -5902,7 +5899,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>195</v>
       </c>
@@ -5922,87 +5919,79 @@
         <v>221</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="17" t="s">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="15" t="s">
         <v>283</v>
       </c>
       <c r="D12" t="s">
         <v>284</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="15">
         <v>1238</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="15" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="15" t="s">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
         <v>195</v>
       </c>
       <c r="B13" t="s">
         <v>212</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="2">
         <v>332</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" t="s">
         <v>202</v>
       </c>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-    </row>
-    <row r="14" spans="1:17" s="5" customFormat="1">
-      <c r="A14" s="15" t="s">
+    </row>
+    <row r="14" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
         <v>195</v>
       </c>
       <c r="B14" t="s">
         <v>212</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="2">
         <v>581</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" t="s">
         <v>229</v>
       </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-    </row>
-    <row r="15" spans="1:17" s="5" customFormat="1">
-      <c r="A15" s="8" t="s">
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14"/>
+    </row>
+    <row r="15" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
         <v>195</v>
       </c>
       <c r="B15" t="s">
@@ -6020,19 +6009,19 @@
       <c r="F15" t="s">
         <v>201</v>
       </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-    </row>
-    <row r="16" spans="1:17" s="5" customFormat="1">
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15"/>
+    </row>
+    <row r="16" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>213</v>
       </c>
@@ -6051,19 +6040,19 @@
       <c r="F16" t="s">
         <v>247</v>
       </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
+      <c r="Q16"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>213</v>
       </c>
@@ -6082,13 +6071,8 @@
       <c r="F17" t="s">
         <v>197</v>
       </c>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-    </row>
-    <row r="18" spans="1:11">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>213</v>
       </c>
@@ -6108,7 +6092,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>214</v>
       </c>
@@ -6128,7 +6112,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>260</v>
       </c>
@@ -6148,27 +6132,27 @@
         <v>251</v>
       </c>
     </row>
-    <row r="21" spans="1:11" s="10" customFormat="1">
-      <c r="A21" s="13" t="s">
+    <row r="21" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="12">
         <v>1129</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="11" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>213</v>
       </c>
@@ -6188,7 +6172,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>260</v>
       </c>
@@ -6208,8 +6192,8 @@
         <v>250</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="8" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
         <v>195</v>
       </c>
       <c r="B24" t="s">
@@ -6228,7 +6212,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="1:11" s="17" customFormat="1">
+    <row r="25" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>213</v>
       </c>
@@ -6248,7 +6232,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>213</v>
       </c>
@@ -6268,7 +6252,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>213</v>
       </c>
@@ -6288,7 +6272,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="28" spans="1:11" s="8" customFormat="1">
+    <row r="28" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>213</v>
       </c>
@@ -6308,7 +6292,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="5" t="s">
         <v>213</v>
       </c>
@@ -6328,7 +6312,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="13" customFormat="1">
+    <row r="30" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>214</v>
       </c>
@@ -6348,27 +6332,27 @@
         <v>249</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
-      <c r="A31" s="8" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E31" s="7">
         <v>1120</v>
       </c>
-      <c r="F31" s="12" t="s">
+      <c r="F31" s="10" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>213</v>
       </c>
@@ -6388,8 +6372,8 @@
         <v>268</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="6" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>195</v>
       </c>
       <c r="B33" t="s">
@@ -6404,11 +6388,11 @@
       <c r="E33" s="2">
         <v>332</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="F33" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>213</v>
       </c>
@@ -6428,7 +6412,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>213</v>
       </c>
@@ -6448,7 +6432,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>213</v>
       </c>
@@ -6468,7 +6452,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="10" customFormat="1">
+    <row r="37" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>213</v>
       </c>
@@ -6488,7 +6472,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>204</v>
       </c>
@@ -6508,7 +6492,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>195</v>
       </c>
@@ -6524,11 +6508,11 @@
       <c r="E39" s="2">
         <v>245</v>
       </c>
-      <c r="F39" s="6" t="s">
+      <c r="F39" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>204</v>
       </c>
@@ -6548,7 +6532,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>213</v>
       </c>
@@ -6568,27 +6552,27 @@
         <v>250</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="8" t="s">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D42" s="9" t="s">
+      <c r="D42" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="E42" s="9">
+      <c r="E42" s="7">
         <v>1129</v>
       </c>
-      <c r="F42" s="9" t="s">
+      <c r="F42" s="7" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>195</v>
       </c>
@@ -6604,11 +6588,11 @@
       <c r="E43" s="2">
         <v>548</v>
       </c>
-      <c r="F43" s="6" t="s">
+      <c r="F43" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>195</v>
       </c>
@@ -6628,7 +6612,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>205</v>
       </c>
@@ -6648,7 +6632,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="8" customFormat="1">
+    <row r="46" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>213</v>
       </c>
@@ -6664,11 +6648,11 @@
       <c r="E46" s="2">
         <v>1540</v>
       </c>
-      <c r="F46" s="6" t="s">
+      <c r="F46" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="47" spans="1:6" s="8" customFormat="1">
+    <row r="47" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>213</v>
       </c>
@@ -6688,7 +6672,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>213</v>
       </c>
@@ -6708,7 +6692,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="49" spans="1:57" s="5" customFormat="1">
+    <row r="49" spans="1:57" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>195</v>
       </c>
@@ -6724,24 +6708,24 @@
       <c r="E49" s="2">
         <v>678</v>
       </c>
-      <c r="F49" s="6" t="s">
+      <c r="F49" t="s">
         <v>207</v>
       </c>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
-      <c r="M49" s="6"/>
-      <c r="N49" s="6"/>
-      <c r="O49" s="6"/>
-      <c r="P49" s="6"/>
-      <c r="Q49" s="6"/>
-      <c r="R49" s="6"/>
-      <c r="S49" s="6"/>
-    </row>
-    <row r="50" spans="1:57" s="5" customFormat="1">
+      <c r="G49"/>
+      <c r="H49"/>
+      <c r="I49"/>
+      <c r="J49"/>
+      <c r="K49"/>
+      <c r="L49"/>
+      <c r="M49"/>
+      <c r="N49"/>
+      <c r="O49"/>
+      <c r="P49"/>
+      <c r="Q49"/>
+      <c r="R49"/>
+      <c r="S49"/>
+    </row>
+    <row r="50" spans="1:57" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>213</v>
       </c>
@@ -6760,54 +6744,41 @@
       <c r="F50" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
-      <c r="L50" s="6"/>
-      <c r="M50" s="6"/>
-      <c r="N50" s="6"/>
-      <c r="O50" s="6"/>
-      <c r="P50" s="6"/>
-      <c r="Q50" s="6"/>
-      <c r="R50" s="6"/>
-      <c r="S50" s="6"/>
-    </row>
-    <row r="51" spans="1:57">
-      <c r="A51" s="8" t="s">
+      <c r="G50"/>
+      <c r="H50"/>
+      <c r="I50"/>
+      <c r="J50"/>
+      <c r="K50"/>
+      <c r="L50"/>
+      <c r="M50"/>
+      <c r="N50"/>
+      <c r="O50"/>
+      <c r="P50"/>
+      <c r="Q50"/>
+      <c r="R50"/>
+      <c r="S50"/>
+    </row>
+    <row r="51" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A51" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="C51" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D51" s="9" t="s">
+      <c r="D51" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="E51" s="9">
+      <c r="E51" s="7">
         <v>1134</v>
       </c>
-      <c r="F51" s="9" t="s">
+      <c r="F51" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="6"/>
-      <c r="L51" s="6"/>
-      <c r="M51" s="6"/>
-      <c r="N51" s="6"/>
-      <c r="O51" s="6"/>
-      <c r="P51" s="6"/>
-      <c r="Q51" s="6"/>
-      <c r="R51" s="6"/>
-      <c r="S51" s="6"/>
-    </row>
-    <row r="52" spans="1:57">
+    </row>
+    <row r="52" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>213</v>
       </c>
@@ -6827,47 +6798,47 @@
         <v>277</v>
       </c>
     </row>
-    <row r="53" spans="1:57">
-      <c r="A53" s="8" t="s">
+    <row r="53" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A53" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="C53" s="9" t="s">
+      <c r="C53" s="7" t="s">
         <v>257</v>
       </c>
       <c r="D53" t="s">
         <v>256</v>
       </c>
-      <c r="E53" s="9">
+      <c r="E53" s="7">
         <v>1118</v>
       </c>
-      <c r="F53" s="9" t="s">
+      <c r="F53" s="7" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="54" spans="1:57">
-      <c r="A54" s="10" t="s">
+    <row r="54" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A54" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="C54" s="9" t="s">
         <v>248</v>
       </c>
       <c r="D54" t="s">
         <v>243</v>
       </c>
-      <c r="E54" s="11">
+      <c r="E54" s="9">
         <v>1006</v>
       </c>
-      <c r="F54" s="11" t="s">
+      <c r="F54" s="9" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="55" spans="1:57">
+    <row r="55" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
         <v>213</v>
       </c>
@@ -6883,11 +6854,11 @@
       <c r="E55" s="4">
         <v>1032</v>
       </c>
-      <c r="F55" s="16" t="s">
+      <c r="F55" s="13" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="56" spans="1:57">
+    <row r="56" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>213</v>
       </c>
@@ -6907,7 +6878,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="57" spans="1:57">
+    <row r="57" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>213</v>
       </c>
@@ -6927,7 +6898,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="58" spans="1:57">
+    <row r="58" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>204</v>
       </c>
@@ -6947,7 +6918,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="59" spans="1:57">
+    <row r="59" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
         <v>213</v>
       </c>
@@ -6967,7 +6938,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="60" spans="1:57">
+    <row r="60" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
         <v>213</v>
       </c>
@@ -6987,7 +6958,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="61" spans="1:57">
+    <row r="61" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>213</v>
       </c>
@@ -7007,7 +6978,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="62" spans="1:57">
+    <row r="62" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>213</v>
       </c>
@@ -7027,7 +6998,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="63" spans="1:57">
+    <row r="63" spans="1:57" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>213</v>
       </c>
@@ -7047,7 +7018,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="64" spans="1:57" s="3" customFormat="1">
+    <row r="64" spans="1:57" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>213</v>
       </c>
@@ -7066,59 +7037,59 @@
       <c r="F64" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="G64" s="15"/>
-      <c r="H64" s="15"/>
-      <c r="I64" s="15"/>
-      <c r="J64" s="15"/>
-      <c r="K64" s="15"/>
-      <c r="L64" s="15"/>
-      <c r="M64" s="15"/>
-      <c r="N64" s="15"/>
-      <c r="O64" s="15"/>
-      <c r="P64" s="15"/>
-      <c r="Q64" s="15"/>
-      <c r="R64" s="15"/>
-      <c r="S64" s="15"/>
-      <c r="T64" s="15"/>
-      <c r="U64" s="15"/>
-      <c r="V64" s="15"/>
-      <c r="W64" s="15"/>
-      <c r="X64" s="15"/>
-      <c r="Y64" s="15"/>
-      <c r="Z64" s="15"/>
-      <c r="AA64" s="15"/>
-      <c r="AB64" s="15"/>
-      <c r="AC64" s="15"/>
-      <c r="AD64" s="15"/>
-      <c r="AE64" s="15"/>
-      <c r="AF64" s="15"/>
-      <c r="AG64" s="15"/>
-      <c r="AH64" s="15"/>
-      <c r="AI64" s="15"/>
-      <c r="AJ64" s="15"/>
-      <c r="AK64" s="15"/>
-      <c r="AL64" s="15"/>
-      <c r="AM64" s="15"/>
-      <c r="AN64" s="15"/>
-      <c r="AO64" s="15"/>
-      <c r="AP64" s="15"/>
-      <c r="AQ64" s="15"/>
-      <c r="AR64" s="15"/>
-      <c r="AS64" s="15"/>
-      <c r="AT64" s="15"/>
-      <c r="AU64" s="15"/>
-      <c r="AV64" s="15"/>
-      <c r="AW64" s="15"/>
-      <c r="AX64" s="15"/>
-      <c r="AY64" s="15"/>
-      <c r="AZ64" s="15"/>
-      <c r="BA64" s="15"/>
-      <c r="BB64" s="15"/>
-      <c r="BC64" s="15"/>
-      <c r="BD64" s="15"/>
-      <c r="BE64" s="15"/>
-    </row>
-    <row r="65" spans="1:57">
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="6"/>
+      <c r="L64" s="6"/>
+      <c r="M64" s="6"/>
+      <c r="N64" s="6"/>
+      <c r="O64" s="6"/>
+      <c r="P64" s="6"/>
+      <c r="Q64" s="6"/>
+      <c r="R64" s="6"/>
+      <c r="S64" s="6"/>
+      <c r="T64" s="6"/>
+      <c r="U64" s="6"/>
+      <c r="V64" s="6"/>
+      <c r="W64" s="6"/>
+      <c r="X64" s="6"/>
+      <c r="Y64" s="6"/>
+      <c r="Z64" s="6"/>
+      <c r="AA64" s="6"/>
+      <c r="AB64" s="6"/>
+      <c r="AC64" s="6"/>
+      <c r="AD64" s="6"/>
+      <c r="AE64" s="6"/>
+      <c r="AF64" s="6"/>
+      <c r="AG64" s="6"/>
+      <c r="AH64" s="6"/>
+      <c r="AI64" s="6"/>
+      <c r="AJ64" s="6"/>
+      <c r="AK64" s="6"/>
+      <c r="AL64" s="6"/>
+      <c r="AM64" s="6"/>
+      <c r="AN64" s="6"/>
+      <c r="AO64" s="6"/>
+      <c r="AP64" s="6"/>
+      <c r="AQ64" s="6"/>
+      <c r="AR64" s="6"/>
+      <c r="AS64" s="6"/>
+      <c r="AT64" s="6"/>
+      <c r="AU64" s="6"/>
+      <c r="AV64" s="6"/>
+      <c r="AW64" s="6"/>
+      <c r="AX64" s="6"/>
+      <c r="AY64" s="6"/>
+      <c r="AZ64" s="6"/>
+      <c r="BA64" s="6"/>
+      <c r="BB64" s="6"/>
+      <c r="BC64" s="6"/>
+      <c r="BD64" s="6"/>
+      <c r="BE64" s="6"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>195</v>
       </c>
@@ -7137,63 +7108,12 @@
       <c r="F65" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="G65" s="6"/>
-      <c r="H65" s="6"/>
-      <c r="I65" s="6"/>
-      <c r="J65" s="6"/>
-      <c r="K65" s="6"/>
-      <c r="L65" s="6"/>
-      <c r="M65" s="6"/>
-      <c r="N65" s="6"/>
-      <c r="O65" s="6"/>
-      <c r="P65" s="6"/>
-      <c r="Q65" s="6"/>
-      <c r="R65" s="6"/>
-      <c r="S65" s="6"/>
-      <c r="T65" s="6"/>
-      <c r="U65" s="6"/>
-      <c r="V65" s="6"/>
-      <c r="W65" s="6"/>
-      <c r="X65" s="6"/>
-      <c r="Y65" s="6"/>
-      <c r="Z65" s="6"/>
-      <c r="AA65" s="6"/>
-      <c r="AB65" s="6"/>
-      <c r="AC65" s="6"/>
-      <c r="AD65" s="6"/>
-      <c r="AE65" s="6"/>
-      <c r="AF65" s="6"/>
-      <c r="AG65" s="6"/>
-      <c r="AH65" s="6"/>
-      <c r="AI65" s="6"/>
-      <c r="AJ65" s="6"/>
-      <c r="AK65" s="6"/>
-      <c r="AL65" s="6"/>
-      <c r="AM65" s="6"/>
-      <c r="AN65" s="6"/>
-      <c r="AO65" s="6"/>
-      <c r="AP65" s="6"/>
-      <c r="AQ65" s="6"/>
-      <c r="AR65" s="6"/>
-      <c r="AS65" s="6"/>
-      <c r="AT65" s="6"/>
-      <c r="AU65" s="6"/>
-      <c r="AV65" s="6"/>
-      <c r="AW65" s="6"/>
-      <c r="AX65" s="6"/>
-      <c r="AY65" s="6"/>
-      <c r="AZ65" s="6"/>
-      <c r="BA65" s="6"/>
-      <c r="BB65" s="6"/>
-      <c r="BC65" s="6"/>
-      <c r="BD65" s="6"/>
-      <c r="BE65" s="6"/>
-    </row>
-    <row r="88" spans="5:5">
+    </row>
+    <row r="88" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E88" s="4"/>
     </row>
   </sheetData>
-  <sortState ref="A2:F65">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F65">
     <sortCondition ref="C2:C65"/>
     <sortCondition ref="B2:B65"/>
     <sortCondition descending="1" ref="E2:E65"/>
@@ -7211,18 +7131,18 @@
       <selection activeCell="G100" sqref="G100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.5" customWidth="1"/>
-    <col min="2" max="2" width="23.125" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>302</v>
       </c>
@@ -7251,7 +7171,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>302</v>
       </c>
@@ -7280,7 +7200,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>302</v>
       </c>
@@ -7309,7 +7229,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>302</v>
       </c>
@@ -7338,7 +7258,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>302</v>
       </c>
@@ -7367,7 +7287,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>302</v>
       </c>
@@ -7396,17 +7316,17 @@
         <v>310</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>302</v>
       </c>
@@ -7435,7 +7355,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>302</v>
       </c>
@@ -7464,7 +7384,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>302</v>
       </c>
@@ -7493,7 +7413,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>302</v>
       </c>
@@ -7522,7 +7442,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>302</v>
       </c>
@@ -7551,7 +7471,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>302</v>
       </c>
@@ -7580,7 +7500,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>302</v>
       </c>
@@ -7609,7 +7529,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>302</v>
       </c>
@@ -7638,7 +7558,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>302</v>
       </c>
@@ -7667,7 +7587,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>302</v>
       </c>
@@ -7696,17 +7616,17 @@
         <v>310</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>286</v>
       </c>
@@ -7735,7 +7655,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>286</v>
       </c>
@@ -7764,7 +7684,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>286</v>
       </c>
@@ -7793,7 +7713,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>286</v>
       </c>
@@ -7822,7 +7742,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>286</v>
       </c>
@@ -7851,7 +7771,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>286</v>
       </c>
@@ -7880,7 +7800,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>286</v>
       </c>
@@ -7909,7 +7829,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>286</v>
       </c>
@@ -7938,7 +7858,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>286</v>
       </c>
@@ -7967,7 +7887,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>286</v>
       </c>
@@ -7996,17 +7916,17 @@
         <v>301</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>286</v>
       </c>
@@ -8035,7 +7955,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>286</v>
       </c>
@@ -8064,7 +7984,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>286</v>
       </c>
@@ -8093,7 +8013,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>286</v>
       </c>
@@ -8122,7 +8042,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>286</v>
       </c>
@@ -8151,7 +8071,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>286</v>
       </c>
@@ -8180,7 +8100,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>286</v>
       </c>
@@ -8209,7 +8129,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>286</v>
       </c>
@@ -8238,7 +8158,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>286</v>
       </c>
@@ -8267,7 +8187,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>286</v>
       </c>
@@ -8296,7 +8216,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>286</v>
       </c>
@@ -8325,7 +8245,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>286</v>
       </c>
@@ -8354,17 +8274,17 @@
         <v>301</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>311</v>
       </c>
@@ -8393,7 +8313,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>311</v>
       </c>
@@ -8422,7 +8342,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>311</v>
       </c>
@@ -8451,7 +8371,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>311</v>
       </c>
@@ -8480,7 +8400,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>311</v>
       </c>
@@ -8509,7 +8429,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>311</v>
       </c>
@@ -8538,7 +8458,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>311</v>
       </c>
@@ -8567,7 +8487,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>311</v>
       </c>
@@ -8596,17 +8516,17 @@
         <v>318</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>311</v>
       </c>
@@ -8635,7 +8555,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>311</v>
       </c>
@@ -8664,7 +8584,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>311</v>
       </c>
@@ -8693,7 +8613,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>311</v>
       </c>
@@ -8722,7 +8642,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>311</v>
       </c>
@@ -8751,7 +8671,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>311</v>
       </c>
@@ -8780,7 +8700,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>311</v>
       </c>
@@ -8809,7 +8729,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>311</v>
       </c>
@@ -8838,7 +8758,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>311</v>
       </c>
@@ -8867,7 +8787,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>311</v>
       </c>
@@ -8896,17 +8816,17 @@
         <v>318</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>320</v>
       </c>
@@ -8935,7 +8855,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>320</v>
       </c>
@@ -8964,7 +8884,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>320</v>
       </c>
@@ -8993,7 +8913,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>320</v>
       </c>
@@ -9022,7 +8942,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>320</v>
       </c>
@@ -9051,7 +8971,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>320</v>
       </c>
@@ -9080,17 +9000,17 @@
         <v>325</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>320</v>
       </c>
@@ -9119,7 +9039,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>320</v>
       </c>
@@ -9148,7 +9068,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>320</v>
       </c>
@@ -9177,7 +9097,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>320</v>
       </c>
@@ -9206,7 +9126,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>320</v>
       </c>
@@ -9235,7 +9155,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>320</v>
       </c>
@@ -9264,17 +9184,17 @@
         <v>325</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>326</v>
       </c>
@@ -9303,7 +9223,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>326</v>
       </c>
@@ -9332,7 +9252,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>326</v>
       </c>
@@ -9361,7 +9281,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>326</v>
       </c>
@@ -9390,7 +9310,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>326</v>
       </c>
@@ -9419,7 +9339,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>326</v>
       </c>
@@ -9448,17 +9368,17 @@
         <v>331</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>326</v>
       </c>
@@ -9487,7 +9407,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>326</v>
       </c>
@@ -9516,7 +9436,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>326</v>
       </c>
@@ -9545,7 +9465,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>326</v>
       </c>
@@ -9574,7 +9494,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>326</v>
       </c>
@@ -9603,7 +9523,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>326</v>
       </c>
@@ -9643,7 +9563,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
